--- a/Energy/frac_scoe_heat_energy_commercial_municipal_coal/row_data/frac_scoe_heat_energy_proportion.xlsx
+++ b/Energy/frac_scoe_heat_energy_commercial_municipal_coal/row_data/frac_scoe_heat_energy_proportion.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateotrc/Documents/TEC/DatosEner/datos/frac_scoe/datos/frac_scoe_heat_energy_commercial_municipal_coal/row_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateotrc/Documents/TEC/DatosEner/datos/frac_scoe_heat_energy_commercial_municipal_coal/row_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC3B03E-D8CA-AD44-A24C-624DC005BEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA898797-0DC7-3042-9AB1-120BA17F1F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="860" windowWidth="27640" windowHeight="16000" xr2:uid="{D7C197B3-7EB3-6A45-82A0-56F0419D22C9}"/>
+    <workbookView xWindow="1880" yWindow="800" windowWidth="27640" windowHeight="16000" xr2:uid="{D7C197B3-7EB3-6A45-82A0-56F0419D22C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -459,13 +459,13 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B24"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" customWidth="1"/>
+    <col min="2" max="2" width="60" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -565,7 +565,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -576,7 +576,7 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">

--- a/Energy/frac_scoe_heat_energy_commercial_municipal_coal/row_data/frac_scoe_heat_energy_proportion.xlsx
+++ b/Energy/frac_scoe_heat_energy_commercial_municipal_coal/row_data/frac_scoe_heat_energy_proportion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateotrc/Documents/TEC/DatosEner/datos/frac_scoe_heat_energy_commercial_municipal_coal/row_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA898797-0DC7-3042-9AB1-120BA17F1F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385A33C4-2984-1944-9C7E-89246D083FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="800" windowWidth="27640" windowHeight="16000" xr2:uid="{D7C197B3-7EB3-6A45-82A0-56F0419D22C9}"/>
+    <workbookView xWindow="1160" yWindow="800" windowWidth="27640" windowHeight="16000" xr2:uid="{D7C197B3-7EB3-6A45-82A0-56F0419D22C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>frac_scoe_heat_energy_commercial_municipal_electricity</t>
   </si>
   <si>
-    <t>frac_scoe_heat_energy_commercial_municipal_gas_petroleum_liquid</t>
-  </si>
-  <si>
     <t>frac_scoe_heat_energy_commercial_municipal_gasoline</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>frac_scoe_heat_energy_commercial_municipal_solid_biomass</t>
+  </si>
+  <si>
+    <t>frac_scoe_heat_energy_commercial_municipal_hydrocarbon_gas_liquids</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,7 +496,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>0.1</v>
@@ -518,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>0.4</v>
@@ -529,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>0.1</v>
@@ -540,7 +540,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>0.25</v>
@@ -584,7 +584,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -595,7 +595,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>1</v>
